--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Median_Household_Income_MEHOINUSA672N.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Median_Household_Income_MEHOINUSA672N.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1984-01-01</t>
@@ -139,112 +139,118 @@
     <t>2019-01-01</t>
   </si>
   <si>
-    <t>52679</t>
-  </si>
-  <si>
-    <t>53664</t>
-  </si>
-  <si>
-    <t>55597</t>
-  </si>
-  <si>
-    <t>56261</t>
-  </si>
-  <si>
-    <t>56725</t>
-  </si>
-  <si>
-    <t>57705</t>
-  </si>
-  <si>
-    <t>56966</t>
-  </si>
-  <si>
-    <t>55302</t>
-  </si>
-  <si>
-    <t>54874</t>
-  </si>
-  <si>
-    <t>54581</t>
-  </si>
-  <si>
-    <t>55215</t>
-  </si>
-  <si>
-    <t>56945</t>
-  </si>
-  <si>
-    <t>57772</t>
-  </si>
-  <si>
-    <t>58961</t>
-  </si>
-  <si>
-    <t>61128</t>
-  </si>
-  <si>
-    <t>62641</t>
-  </si>
-  <si>
-    <t>62512</t>
-  </si>
-  <si>
-    <t>61126</t>
-  </si>
-  <si>
-    <t>60435</t>
-  </si>
-  <si>
-    <t>60360</t>
-  </si>
-  <si>
-    <t>60150</t>
-  </si>
-  <si>
-    <t>60794</t>
-  </si>
-  <si>
-    <t>61268</t>
-  </si>
-  <si>
-    <t>62090</t>
-  </si>
-  <si>
-    <t>59877</t>
-  </si>
-  <si>
-    <t>59458</t>
-  </si>
-  <si>
-    <t>57904</t>
-  </si>
-  <si>
-    <t>57021</t>
-  </si>
-  <si>
-    <t>56912</t>
-  </si>
-  <si>
-    <t>58904</t>
-  </si>
-  <si>
-    <t>58001</t>
-  </si>
-  <si>
-    <t>60987</t>
-  </si>
-  <si>
-    <t>62898</t>
-  </si>
-  <si>
-    <t>63761</t>
-  </si>
-  <si>
-    <t>64324</t>
-  </si>
-  <si>
-    <t>68703</t>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>53337</t>
+  </si>
+  <si>
+    <t>54334</t>
+  </si>
+  <si>
+    <t>56291</t>
+  </si>
+  <si>
+    <t>56964</t>
+  </si>
+  <si>
+    <t>57433</t>
+  </si>
+  <si>
+    <t>58425</t>
+  </si>
+  <si>
+    <t>57677</t>
+  </si>
+  <si>
+    <t>55992</t>
+  </si>
+  <si>
+    <t>55559</t>
+  </si>
+  <si>
+    <t>55263</t>
+  </si>
+  <si>
+    <t>55905</t>
+  </si>
+  <si>
+    <t>57655</t>
+  </si>
+  <si>
+    <t>58494</t>
+  </si>
+  <si>
+    <t>59697</t>
+  </si>
+  <si>
+    <t>61891</t>
+  </si>
+  <si>
+    <t>63423</t>
+  </si>
+  <si>
+    <t>63292</t>
+  </si>
+  <si>
+    <t>61889</t>
+  </si>
+  <si>
+    <t>61190</t>
+  </si>
+  <si>
+    <t>61113</t>
+  </si>
+  <si>
+    <t>60901</t>
+  </si>
+  <si>
+    <t>61553</t>
+  </si>
+  <si>
+    <t>62033</t>
+  </si>
+  <si>
+    <t>62865</t>
+  </si>
+  <si>
+    <t>60624</t>
+  </si>
+  <si>
+    <t>60200</t>
+  </si>
+  <si>
+    <t>58627</t>
+  </si>
+  <si>
+    <t>57732</t>
+  </si>
+  <si>
+    <t>57623</t>
+  </si>
+  <si>
+    <t>59640</t>
+  </si>
+  <si>
+    <t>58725</t>
+  </si>
+  <si>
+    <t>61748</t>
+  </si>
+  <si>
+    <t>63683</t>
+  </si>
+  <si>
+    <t>64557</t>
+  </si>
+  <si>
+    <t>65127</t>
+  </si>
+  <si>
+    <t>69560</t>
+  </si>
+  <si>
+    <t>67521</t>
   </si>
 </sst>
 </file>
@@ -602,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -639,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -656,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -673,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -690,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -707,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -724,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -758,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -775,7 +781,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -792,7 +798,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -809,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -826,7 +832,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -843,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -860,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -877,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -894,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -911,7 +917,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -928,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -945,7 +951,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -962,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -979,7 +985,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -996,7 +1002,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1013,7 +1019,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1030,7 +1036,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1047,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1064,7 +1070,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1081,7 +1087,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1098,7 +1104,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1115,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1132,7 +1138,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1149,7 +1155,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1166,7 +1172,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1183,7 +1189,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1200,7 +1206,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1217,7 +1223,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1234,7 +1240,24 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
